--- a/Planificación del proyecto/EV2 Equipo 01.xlsx
+++ b/Planificación del proyecto/EV2 Equipo 01.xlsx
@@ -5,23 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeDicenTecno\Desktop\project\Ecommerce-Sports\Planificación del proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Desktop\New folder (5)\Ecommerce-Sports\Planificación del proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="45" windowWidth="15420" windowHeight="11085" tabRatio="331" activeTab="2"/>
+    <workbookView xWindow="13380" yWindow="45" windowWidth="15420" windowHeight="11085" tabRatio="331" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CI S1" sheetId="9" r:id="rId1"/>
-    <sheet name="CI S2" sheetId="13" r:id="rId2"/>
-    <sheet name="Informe S2" sheetId="14" r:id="rId3"/>
+    <sheet name="Informe S2" sheetId="14" r:id="rId2"/>
+    <sheet name="Informe S3" sheetId="16" r:id="rId3"/>
+    <sheet name="CI S2" sheetId="13" r:id="rId4"/>
+    <sheet name="CI S3" sheetId="15" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="cc">'CI S3'!$G$95:$H$104</definedName>
+    <definedName name="Formula1">'CI S3'!$D$98:$E$101</definedName>
+    <definedName name="Formulas">'CI S3'!$G$95:$H$104</definedName>
+    <definedName name="TablaFormulas">'CI S3'!$H$95:$J$104</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="182">
   <si>
     <t>Semana 3</t>
   </si>
@@ -372,6 +383,174 @@
   </si>
   <si>
     <t>Informe de Avance - Semana 2</t>
+  </si>
+  <si>
+    <t>Como es mayor a 0, significa que estimamos mal. Mas especificamente, estimamos 1:45 horas de más.</t>
+  </si>
+  <si>
+    <t>Cada recurso invertido en el proyecto rinde 1,26. Si bien lo más optimo seria 1, la diferencia no es tan grande, por lo que nos esta indicando que podemos mejorar.</t>
+  </si>
+  <si>
+    <t>Lo que faltaba para terminar la semana 2 eran 15,5 horas.</t>
+  </si>
+  <si>
+    <t>El rendimiento aumentó en la semana 2, en comparación con la 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2:30 hs</t>
+  </si>
+  <si>
+    <t>30 min.</t>
+  </si>
+  <si>
+    <t>3:00hs</t>
+  </si>
+  <si>
+    <t>1 hs</t>
+  </si>
+  <si>
+    <t>1 hs.</t>
+  </si>
+  <si>
+    <t>Servicios al usuario</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Catalogo</t>
+  </si>
+  <si>
+    <t>Listar Catalogo</t>
+  </si>
+  <si>
+    <t>Organizar catalogo</t>
+  </si>
+  <si>
+    <t>Taxonomia de Google</t>
+  </si>
+  <si>
+    <t>Productos destacados</t>
+  </si>
+  <si>
+    <t>Listar productos destacados</t>
+  </si>
+  <si>
+    <t>Hacer responsive la lista de productos</t>
+  </si>
+  <si>
+    <t>1.3.3.3</t>
+  </si>
+  <si>
+    <t>ABM usuario</t>
+  </si>
+  <si>
+    <t>Estructurar entidad usuario</t>
+  </si>
+  <si>
+    <t>Agregar usuario</t>
+  </si>
+  <si>
+    <t>Modificar usuario</t>
+  </si>
+  <si>
+    <t>Eliminar Usuario</t>
+  </si>
+  <si>
+    <t>1.3.3.1.4</t>
+  </si>
+  <si>
+    <t>Productos relacionados</t>
+  </si>
+  <si>
+    <t>Implementar vistas de productos relacionados</t>
+  </si>
+  <si>
+    <t>Configurar productos en base a la taxonomia</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Armar la estructura del perfil</t>
+  </si>
+  <si>
+    <t>Asignar estilos visuales al perfil</t>
+  </si>
+  <si>
+    <t>Permitir y desarrollar la modificacion del nombre de usuario</t>
+  </si>
+  <si>
+    <t>1.2.1.2</t>
+  </si>
+  <si>
+    <t>Cambio de clave</t>
+  </si>
+  <si>
+    <t>Desarrollar la vista de la nueva clave</t>
+  </si>
+  <si>
+    <t>Actualizar la nueva clave en la BD</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
+  </si>
+  <si>
+    <t>Recuperacion de clave</t>
+  </si>
+  <si>
+    <t>Generar clave temporal</t>
+  </si>
+  <si>
+    <t>Implementar libs y enviar mail al correo del usuario</t>
+  </si>
+  <si>
+    <t>Desarrollar vistas para el proceso de recuperacion de clave</t>
+  </si>
+  <si>
+    <t>Desvio calendrio</t>
+  </si>
+  <si>
+    <t>Desvio costos</t>
+  </si>
+  <si>
+    <t>Estamos al inicio de la semana 3</t>
+  </si>
+  <si>
+    <t>Lo que avancé frente a lo que tenía que avanzar</t>
+  </si>
+  <si>
+    <t>Lo que gané frente a lo que gasté</t>
+  </si>
+  <si>
+    <t>Si se respeta el presupuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si se mantiene el rendimiento </t>
+  </si>
+  <si>
+    <t>Si se mantiene el rendimiento desde el costo</t>
+  </si>
+  <si>
+    <t>Lo que debería rendir cada peso</t>
+  </si>
+  <si>
+    <t>Numero de integrantes * horas de trabajo * cant. De semanas</t>
+  </si>
+  <si>
+    <t>Informe de Avance - Semana 3</t>
+  </si>
+  <si>
+    <t>27/9/2020</t>
   </si>
   <si>
     <r>
@@ -386,23 +565,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Finalizamos la segunda semana, si bien no pudimos completar todas las actividades de los componentes de la semana 1 ( 1.3.3.1 ; 1.3.3.2 ; 1.3.3.4)  , las mismas fueron finalizadas en la semana 2 satisfactoriamente. En cuanto a las actividades de la segunda semana todas fueron completadas.</t>
+      <t xml:space="preserve"> Finalizamos la segunda semana, si bien no pudimos completar todas las actividades de los componentes de la semana 1 ( 1.2.3 ; 1.3.3.2 ; 1.3.3.4)  , las mismas fueron finalizadas en la semana 2 satisfactoriamente. En cuanto a las actividades de la segunda semana todas fueron completadas.</t>
     </r>
   </si>
   <si>
-    <t>Como es mayor a 0, significa que estimamos mal. Mas especificamente, estimamos 1:45 horas de más.</t>
-  </si>
-  <si>
-    <t>Cada recurso invertido en el proyecto rinde 1,26. Si bien lo más optimo seria 1, la diferencia no es tan grande, por lo que nos esta indicando que podemos mejorar.</t>
-  </si>
-  <si>
-    <t>Lo que faltaba para terminar la semana 2 eran 15,5 horas.</t>
-  </si>
-  <si>
-    <t>El rendimiento aumentó en la semana 2, en comparación con la 1</t>
-  </si>
-  <si>
-    <t>-</t>
+    <r>
+      <t>Análisis:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Finalizamos la tercer semana, si bien no pudimos completar todas las actividades de los componentes de la semana 3 ( 1.3.3.1 ; 1.1.6.2 ; 1.3.3.1.4 ; 1.2.1.1 ; 1.2.1.2).Las mismas van a ser completas en el transcurso de la semana cuatro, los problemas fueron en gran parte en subestimar las complejidad de algunas actividades e inconvenientes personales de un integrante.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis: Consideramos que por el momento estamos retrasados en cuanto a lo planificado, esperamos poder solucionarlo en la semana entrante </t>
+  </si>
+  <si>
+    <t>Luego del trabajo realizado esta semana el costo actual refleja que se estimo más tiempo de lo que en realidad llevaron esas actividades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada hora de trabajo rinde 1 hora. </t>
+  </si>
+  <si>
+    <t>Como es mayor a 0, significa que estimamos mal. Mas especificamente, estimamos 30 min de más.</t>
+  </si>
+  <si>
+    <t>El EV esta alineado con el PV. Esto quiere decir que alcanzamos a completar todas las actividades hasta el momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada recurso invertido en el proyecto rinde 1.02, el valor esta muy proximo a 1, lo que nos estaria indicando que es casi optimo, consiguiendo una pequeña mejora en comparación con la semana anterior. </t>
+  </si>
+  <si>
+    <t>Lo que falta para terminar el proyecto es 201 hs</t>
   </si>
 </sst>
 </file>
@@ -570,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1103,13 +1304,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,31 +1502,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,21 +1546,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1382,15 +1647,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1400,38 +1656,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1453,243 +1754,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>PV</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'CI S2'!$G$78:$G$81</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>s1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>s2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>s3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CI S2'!$H$78:$H$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4114-40B6-A6DC-2C013209E325}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>EV</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'CI S2'!$G$78:$G$81</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>s1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>s2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>s3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CI S2'!$I$78:$I$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4114-40B6-A6DC-2C013209E325}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>AC</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'CI S2'!$G$78:$G$81</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>s1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>s2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>s3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CI S2'!$J$78:$J$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4114-40B6-A6DC-2C013209E325}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="125564416"/>
-        <c:axId val="129613824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="125564416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129613824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129613824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125564416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1945,7 +2009,810 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$H$109:$H$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23FA-44A2-8961-89DCCF890058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$I$109:$I$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23FA-44A2-8961-89DCCF890058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$J$109:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23FA-44A2-8961-89DCCF890058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="135113728"/>
+        <c:axId val="135205632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135113728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135205632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135205632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135113728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CI S2'!$G$78:$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CI S2'!$H$78:$H$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CI S2'!$G$78:$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CI S2'!$I$78:$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CI S2'!$G$78:$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CI S2'!$J$78:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="125564416"/>
+        <c:axId val="129613824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125564416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129613824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125564416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$H$109:$H$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-554D-47CC-801C-2245F33ECF6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$I$109:$I$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-554D-47CC-801C-2245F33ECF6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CI S3'!$G$109:$G$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>s2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>s3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CI S3'!$J$109:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-554D-47CC-801C-2245F33ECF6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="135113728"/>
+        <c:axId val="135205632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135113728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135205632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135205632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135113728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522194</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1980,20 +2847,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2015,6 +2882,73 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CI S1"/>
+      <sheetName val="CI S2"/>
+      <sheetName val="CI S3"/>
+      <sheetName val="Informe S2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="109">
+          <cell r="G109" t="str">
+            <v>s1</v>
+          </cell>
+          <cell r="H109">
+            <v>11.5</v>
+          </cell>
+          <cell r="I109">
+            <v>11.5</v>
+          </cell>
+          <cell r="J109">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="G110" t="str">
+            <v>s2</v>
+          </cell>
+          <cell r="H110">
+            <v>24</v>
+          </cell>
+          <cell r="I110">
+            <v>13</v>
+          </cell>
+          <cell r="J110">
+            <v>15.5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="G111" t="str">
+            <v>s3</v>
+          </cell>
+          <cell r="H111">
+            <v>24</v>
+          </cell>
+          <cell r="I111">
+            <v>13</v>
+          </cell>
+          <cell r="J111">
+            <v>15.5</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="G112" t="str">
+            <v>s4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2217,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -2233,59 +3167,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="90" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85" t="s">
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="85" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="98"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="82" t="s">
+      <c r="R1" s="98"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="84"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="99"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -2330,17 +3264,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -3806,13 +4740,13 @@
       <c r="D36" s="39"/>
       <c r="E36" s="26"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
@@ -3857,58 +4791,58 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="89"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="88"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
       <c r="F42" s="24"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -3917,29 +4851,29 @@
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D47" s="24"/>
@@ -3959,17 +4893,17 @@
         <f>E56-E54</f>
         <v>0</v>
       </c>
-      <c r="I50" s="74" t="s">
+      <c r="I50" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="74"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D51" s="53"/>
@@ -3980,23 +4914,23 @@
         <f>E56-E55</f>
         <v>0</v>
       </c>
-      <c r="I51" s="74" t="s">
+      <c r="I51" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="76"/>
+      <c r="E52" s="105"/>
       <c r="G52" s="32" t="s">
         <v>23</v>
       </c>
@@ -4004,17 +4938,17 @@
         <f>E56/E54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="74" t="s">
+      <c r="I52" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="74"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
     </row>
     <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D53" s="25" t="s">
@@ -4029,17 +4963,17 @@
         <f>E56/E55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
     </row>
@@ -4056,17 +4990,17 @@
         <f>E53-E56</f>
         <v>0</v>
       </c>
-      <c r="I54" s="74" t="s">
+      <c r="I54" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="74"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
     </row>
@@ -4083,17 +5017,17 @@
         <f>(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="74" t="s">
+      <c r="I55" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="74"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
     </row>
@@ -4110,17 +5044,17 @@
         <f>E55+(E53-E56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="74" t="s">
+      <c r="I56" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="74"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
     </row>
@@ -4133,17 +5067,17 @@
         <f>E53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="74" t="s">
+      <c r="I57" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="98"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
     </row>
@@ -4156,17 +5090,17 @@
         <f>E55+(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="74" t="s">
+      <c r="I58" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="98"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
     </row>
@@ -4180,17 +5114,17 @@
         <f>(E53-E56)/(E53-E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="74" t="s">
+      <c r="I59" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="98"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
     </row>
@@ -4399,20 +5333,25 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G36:M36"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="A1:A3"/>
@@ -4423,25 +5362,20 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4450,10 +5384,1194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="122"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
+    </row>
+    <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+    </row>
+    <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+    </row>
+    <row r="32" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="61"/>
+    </row>
+    <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="113"/>
+      <c r="F34" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="113"/>
+    </row>
+    <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="71">
+        <v>225</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="151"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="134"/>
+    </row>
+    <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="70">
+        <v>8.5</v>
+      </c>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="134"/>
+    </row>
+    <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="63">
+        <v>6.75</v>
+      </c>
+      <c r="D37" s="132"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="D38" s="132"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="63">
+        <v>0</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="111"/>
+      <c r="F39" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="108"/>
+    </row>
+    <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="63">
+        <v>1.75</v>
+      </c>
+      <c r="D40" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="111"/>
+      <c r="F40" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="108"/>
+    </row>
+    <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="63">
+        <v>1</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="111"/>
+      <c r="F41" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
+    </row>
+    <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="63">
+        <v>1.26</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
+    </row>
+    <row r="43" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="63">
+        <v>15.5</v>
+      </c>
+      <c r="D43" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="111"/>
+      <c r="F43" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="108"/>
+    </row>
+    <row r="44" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="63">
+        <v>12.31</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="111"/>
+      <c r="F44" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108"/>
+    </row>
+    <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="63">
+        <v>22.25</v>
+      </c>
+      <c r="D45" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="111"/>
+      <c r="F45" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="134"/>
+    </row>
+    <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="63">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D46" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="111"/>
+      <c r="F46" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="134"/>
+    </row>
+    <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="63">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D47" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="111"/>
+      <c r="F47" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="134"/>
+    </row>
+    <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="D48" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="111"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="134"/>
+    </row>
+    <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="137"/>
+    </row>
+    <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="122"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="123"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="125"/>
+    </row>
+    <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="126"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="128"/>
+    </row>
+    <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+    </row>
+    <row r="54" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="68"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="65"/>
+      <c r="J56" s="65"/>
+    </row>
+    <row r="57" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+      <c r="I57" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="B50:K52"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B26:K28"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+    </row>
+    <row r="25" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="122"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
+    </row>
+    <row r="28" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+    </row>
+    <row r="29" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
+    </row>
+    <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+    </row>
+    <row r="34" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="113"/>
+    </row>
+    <row r="35" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="157">
+        <v>225</v>
+      </c>
+      <c r="D35" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+    </row>
+    <row r="36" spans="2:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="159">
+        <f>VLOOKUP('Informe S3'!B36,Formula1,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D36" s="162"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+    </row>
+    <row r="37" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="159">
+        <f>VLOOKUP('Informe S3'!B37,Formula1,2,FALSE)</f>
+        <v>23.5</v>
+      </c>
+      <c r="D37" s="163"/>
+      <c r="E37" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+    </row>
+    <row r="38" spans="2:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="159">
+        <f>VLOOKUP('Informe S3'!B38,Formula1,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D38" s="163"/>
+      <c r="E38" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+    </row>
+    <row r="39" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="159">
+        <f>VLOOKUP('Informe S3'!B39,cc,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+    </row>
+    <row r="40" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="159">
+        <f>VLOOKUP('Informe S3'!B40,cc,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+    </row>
+    <row r="41" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="159">
+        <f>VLOOKUP('Informe S3'!B41,cc,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+    </row>
+    <row r="42" spans="2:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="159">
+        <f>VLOOKUP('Informe S3'!B42,cc,2,FALSE)</f>
+        <v>1.0212765957446808</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+    </row>
+    <row r="43" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="159">
+        <f>VLOOKUP('Informe S3'!B43,cc,2,FALSE)</f>
+        <v>201</v>
+      </c>
+      <c r="D43" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="160" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+    </row>
+    <row r="44" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="159">
+        <v>196.81</v>
+      </c>
+      <c r="D44" s="164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="160" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+    </row>
+    <row r="45" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="159">
+        <f>VLOOKUP('Informe S3'!B45,cc,2,FALSE)</f>
+        <v>224.5</v>
+      </c>
+      <c r="D45" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
+    </row>
+    <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="159">
+        <v>220.31</v>
+      </c>
+      <c r="D46" s="164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="159">
+        <v>220.31</v>
+      </c>
+      <c r="D47" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="158"/>
+    </row>
+    <row r="48" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="159">
+        <f>VLOOKUP('Informe S3'!B48,cc,2,FALSE)</f>
+        <v>0.9975186104218362</v>
+      </c>
+      <c r="D48" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="158"/>
+    </row>
+    <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="155"/>
+    </row>
+    <row r="50" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="123"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="125"/>
+    </row>
+    <row r="52" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="126"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="128"/>
+    </row>
+    <row r="53" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="2:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+    </row>
+    <row r="55" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="H55" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+    </row>
+    <row r="56" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="65"/>
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B50:J52"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B26:J28"/>
+    <mergeCell ref="B30:J30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4468,59 +6586,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="90" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85" t="s">
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="85" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="98"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="82" t="s">
+      <c r="R1" s="98"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="84"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="99"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -4565,17 +6683,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -6815,15 +8933,15 @@
       <c r="D52" s="39"/>
       <c r="E52" s="26"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="87" t="s">
+      <c r="G52" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="89"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="88"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
@@ -6850,11 +8968,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
       <c r="F54" s="24"/>
       <c r="G54" s="73"/>
       <c r="H54" s="73"/>
@@ -6865,11 +8983,11 @@
       <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
       <c r="F55" s="24"/>
       <c r="G55" s="73"/>
       <c r="H55" s="73"/>
@@ -6880,11 +8998,11 @@
       <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
       <c r="F56" s="24"/>
       <c r="G56" s="73"/>
       <c r="H56" s="73"/>
@@ -6895,11 +9013,11 @@
       <c r="M56" s="73"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
       <c r="F57" s="24"/>
       <c r="G57" s="73"/>
       <c r="H57" s="73"/>
@@ -6916,8 +9034,8 @@
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="73"/>
@@ -7002,17 +9120,17 @@
         <f>E71-E69</f>
         <v>0</v>
       </c>
-      <c r="I65" s="74" t="s">
+      <c r="I65" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="74"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="79"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
     </row>
     <row r="66" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G66" s="30" t="s">
@@ -7022,23 +9140,23 @@
         <f>E71-E70</f>
         <v>1.75</v>
       </c>
-      <c r="I66" s="74" t="s">
+      <c r="I66" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="74"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="79"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
     </row>
     <row r="67" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="76"/>
+      <c r="E67" s="105"/>
       <c r="G67" s="30" t="s">
         <v>23</v>
       </c>
@@ -7046,25 +9164,24 @@
         <f>E71/E69</f>
         <v>1</v>
       </c>
-      <c r="I67" s="74" t="s">
+      <c r="I67" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="74"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
     </row>
     <row r="68" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D68" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="23">
-        <f>T48</f>
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="30" t="s">
@@ -7074,17 +9191,17 @@
         <f>E71/E70</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="I68" s="74" t="s">
+      <c r="I68" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="74"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
     </row>
@@ -7102,19 +9219,19 @@
       </c>
       <c r="H69" s="59">
         <f>E68-E71</f>
-        <v>15.5</v>
-      </c>
-      <c r="I69" s="74" t="s">
+        <v>216.5</v>
+      </c>
+      <c r="I69" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="74"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
       <c r="R69" s="26"/>
       <c r="S69" s="26"/>
     </row>
@@ -7132,19 +9249,19 @@
       </c>
       <c r="H70" s="59">
         <f>(E68-E71)/(H67*H68)</f>
-        <v>12.308823529411764</v>
-      </c>
-      <c r="I70" s="74" t="s">
+        <v>171.92647058823528</v>
+      </c>
+      <c r="I70" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="74"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
     </row>
@@ -7162,19 +9279,19 @@
       </c>
       <c r="H71" s="59">
         <f>E70+(E68-E71)</f>
-        <v>22.25</v>
-      </c>
-      <c r="I71" s="74" t="s">
+        <v>223.25</v>
+      </c>
+      <c r="I71" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="74"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
     </row>
@@ -7185,19 +9302,19 @@
       </c>
       <c r="H72" s="59">
         <f>E68/H68</f>
-        <v>19.058823529411764</v>
-      </c>
-      <c r="I72" s="74" t="s">
+        <v>178.67647058823528</v>
+      </c>
+      <c r="I72" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="98"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26"/>
     </row>
@@ -7209,19 +9326,19 @@
       </c>
       <c r="H73" s="59">
         <f>E70+(E68-E71)/(H67*H68)</f>
-        <v>19.058823529411764</v>
-      </c>
-      <c r="I73" s="74" t="s">
+        <v>178.67647058823528</v>
+      </c>
+      <c r="I73" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="98"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
     </row>
@@ -7233,19 +9350,19 @@
       </c>
       <c r="H74" s="59">
         <f>(E68-E71)/(E68-E70)</f>
-        <v>0.89855072463768115</v>
-      </c>
-      <c r="I74" s="74" t="s">
+        <v>0.99198167239404356</v>
+      </c>
+      <c r="I74" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="98"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="83"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="84"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26"/>
     </row>
@@ -7487,29 +9604,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="I69:J69"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="T1:V1"/>
@@ -7525,6 +9619,29 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="G52:M52"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7532,607 +9649,5053 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:K48"/>
+    <sheetView topLeftCell="D91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
-    </row>
-    <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
-    </row>
-    <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-    </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
-    </row>
-    <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-    </row>
-    <row r="32" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="61"/>
-    </row>
-    <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="124"/>
-    </row>
-    <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="62" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="98"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="98"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="98"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="2">
+        <v>44081</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
+        <f>H2+6</f>
+        <v>44087</v>
+      </c>
+      <c r="K2" s="5">
+        <f>H2+7</f>
+        <v>44088</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5">
+        <f>K2+6</f>
+        <v>44094</v>
+      </c>
+      <c r="N2" s="4">
+        <f>K2+7</f>
+        <v>44095</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4">
+        <f>N2+6</f>
+        <v>44101</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>N2+7</f>
+        <v>44102</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="5">
+        <f>Q2+6</f>
+        <v>44108</v>
+      </c>
+      <c r="T2" s="4">
+        <v>44067</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4">
+        <v>44143</v>
+      </c>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="90"/>
+      <c r="B3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="35">
+        <f>H4+K4+N4+Q4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="35">
+        <f>I4+L4+O4+R4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="35">
+        <f>J4+M4+P4+S4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="79"/>
+      <c r="B5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="35">
+        <f t="shared" ref="T5:V68" si="0">H5+K5+N5+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="79"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="79"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="79"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="79"/>
+      <c r="B11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="79"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="47">
+        <v>1</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <v>0</v>
+      </c>
+      <c r="K13" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="79"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="79"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
+        <v>0</v>
+      </c>
+      <c r="K15" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="47">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <v>1</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="79"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="47">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="K19" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="79"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="45">
+        <v>0</v>
+      </c>
+      <c r="K21" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="79"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="58"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U22" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V22" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="79"/>
+      <c r="B23" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="79"/>
+      <c r="B24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="79"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="46">
+        <v>1</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U25" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V25" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="79"/>
+      <c r="B26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="79"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="79"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U28" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V28" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="79"/>
+      <c r="B29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="79"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="46">
+        <v>1</v>
+      </c>
+      <c r="I30" s="46">
+        <v>1</v>
+      </c>
+      <c r="J30" s="46">
+        <v>1</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="79"/>
+      <c r="B31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="69">
+        <v>2</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U34" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V34" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="69">
+        <v>1</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U35" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="41">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="41">
+        <v>3</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="58">
+        <v>3</v>
+      </c>
+      <c r="L38" s="69">
+        <v>3</v>
+      </c>
+      <c r="M38" s="69">
+        <v>2</v>
+      </c>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U38" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V38" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="41">
+        <v>2</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="58">
+        <v>2</v>
+      </c>
+      <c r="L39" s="69">
+        <v>2</v>
+      </c>
+      <c r="M39" s="69">
+        <v>2</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U39" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V39" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="41">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="58">
+        <v>1</v>
+      </c>
+      <c r="L40" s="69">
+        <v>1</v>
+      </c>
+      <c r="M40" s="69">
+        <v>2</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="41">
+        <v>2</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="41">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="58">
+        <v>1</v>
+      </c>
+      <c r="L43" s="69">
+        <v>1</v>
+      </c>
+      <c r="M43" s="69">
+        <v>1</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="41">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="58">
+        <v>1</v>
+      </c>
+      <c r="L44" s="69">
+        <v>1</v>
+      </c>
+      <c r="M44" s="69">
+        <v>1</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="41">
+        <v>3</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="41">
+        <v>2</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="58">
+        <v>2</v>
+      </c>
+      <c r="L46" s="69">
+        <v>2</v>
+      </c>
+      <c r="M46" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U46" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V46" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="41">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="58">
+        <v>1</v>
+      </c>
+      <c r="L47" s="69">
+        <v>1</v>
+      </c>
+      <c r="M47" s="69">
+        <v>1</v>
+      </c>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V47" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O50" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P50" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U50" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V50" s="35" t="e">
+        <f>P50+M50+#REF!+S50</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="41">
+        <v>2</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="149">
+        <v>2</v>
+      </c>
+      <c r="O51" s="149">
+        <v>2</v>
+      </c>
+      <c r="P51" s="46">
+        <v>4.5</v>
+      </c>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U51" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V51" s="35" t="e">
+        <f>P51+M51+#REF!+S51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="41">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="149">
+        <v>2</v>
+      </c>
+      <c r="O52" s="36">
+        <v>0</v>
+      </c>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U52" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="35" t="e">
+        <f>P52+M52+#REF!+S52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="41">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="149"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="35" t="e">
+        <f>P53+M53+#REF!+S53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="41">
+        <v>2</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="149"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="35" t="e">
+        <f>P54+M54+#REF!+S54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="41">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="35" t="e">
+        <f>P55+M55+#REF!+S55</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="41">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="35" t="e">
+        <f>P56+M56+#REF!+S56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="50"/>
+      <c r="E57" s="41">
+        <v>4</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="149"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="35" t="e">
+        <f>P57+M57+#REF!+S57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="41">
+        <v>2</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="35" t="e">
+        <f>P59+M58+#REF!+S58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P59" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U59" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V59" s="35" t="e">
+        <f>P60+M59+#REF!+S59</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P60" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U60" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V60" s="35" t="e">
+        <f>P61+M60+#REF!+S60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O61" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U61" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V61" s="35" t="e">
+        <f>P62+M61+#REF!+S61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O62" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P62" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="Q62" s="79"/>
+      <c r="R62" s="79"/>
+      <c r="S62" s="79"/>
+      <c r="T62" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U62" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V62" s="35" t="e">
+        <f>#REF!+M62+#REF!+S62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="41">
+        <v>2</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="149"/>
+      <c r="O63" s="149"/>
+      <c r="P63" s="149"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="79"/>
+      <c r="T63" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="41">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="149">
+        <v>1</v>
+      </c>
+      <c r="O64" s="149">
+        <v>1</v>
+      </c>
+      <c r="P64" s="149">
+        <v>1.5</v>
+      </c>
+      <c r="Q64" s="79"/>
+      <c r="R64" s="79"/>
+      <c r="S64" s="79"/>
+      <c r="T64" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U64" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="35">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="41">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="149"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="41">
+        <v>8</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="149"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="41">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="149"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="79"/>
+      <c r="S67" s="79"/>
+      <c r="T67" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O68" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P68" s="149">
+        <v>1.5</v>
+      </c>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U68" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V68" s="35">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="79"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="149"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="35">
+        <f t="shared" ref="T69:V77" si="1">H69+K69+N69+Q69</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="79"/>
+      <c r="B70" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="50"/>
+      <c r="E70" s="41">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="149"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="79"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="149"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="79"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="149"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="79"/>
+      <c r="B73" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="41">
+        <v>5</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="149"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" s="79"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O74" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P74" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="79"/>
+      <c r="T74" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U74" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V74" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" s="79"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="41">
+        <v>2</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="149">
+        <v>2</v>
+      </c>
+      <c r="O75" s="149">
+        <v>2</v>
+      </c>
+      <c r="P75" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U75" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V75" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="79"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="41">
+        <v>2</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="149">
+        <v>2</v>
+      </c>
+      <c r="O76" s="149">
+        <v>2</v>
+      </c>
+      <c r="P76" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U76" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V76" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="79"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="O77" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="P77" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="Q77" s="79"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="79"/>
+      <c r="T77" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U77" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V77" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="79"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="79"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="54">
+        <f>SUM(H6:H32)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I78" s="55">
+        <f>SUM(I6:I32)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J78" s="54">
+        <f>SUM(J6:J32)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K78" s="54">
+        <f>SUM(K4:K47)</f>
+        <v>15.5</v>
+      </c>
+      <c r="L78" s="54">
+        <f>SUM(L4:L47)</f>
+        <v>15.5</v>
+      </c>
+      <c r="M78" s="54">
+        <f>SUM(M4:M47)</f>
+        <v>16.75</v>
+      </c>
+      <c r="N78" s="54">
+        <f>SUM(N4:N77)</f>
+        <v>13</v>
+      </c>
+      <c r="O78" s="54">
+        <f>SUM(O4:O77)</f>
+        <v>11</v>
+      </c>
+      <c r="P78" s="54">
+        <f>SUM(P4:P77)</f>
+        <v>13</v>
+      </c>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="54">
+        <f>SUM(T4:T77)</f>
+        <v>37</v>
+      </c>
+      <c r="U78" s="54">
+        <f>SUM(U4:U77)</f>
+        <v>35</v>
+      </c>
+      <c r="V78" s="54" t="e">
+        <f>SUM(V4:V77)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="79"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="138">
+        <f>H78</f>
+        <v>8.5</v>
+      </c>
+      <c r="I79" s="139">
+        <f>I78</f>
+        <v>8.5</v>
+      </c>
+      <c r="J79" s="138">
+        <f>J78</f>
+        <v>6.75</v>
+      </c>
+      <c r="K79" s="138">
+        <f>K78+H79</f>
+        <v>24</v>
+      </c>
+      <c r="L79" s="138">
+        <f>L78+I79</f>
+        <v>24</v>
+      </c>
+      <c r="M79" s="138">
+        <f>M78+J79</f>
+        <v>23.5</v>
+      </c>
+      <c r="N79" s="138">
+        <f t="shared" ref="K79:P79" si="2">N78+K79</f>
+        <v>37</v>
+      </c>
+      <c r="O79" s="138">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="P79" s="138">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="Q79" s="140"/>
+      <c r="R79" s="140"/>
+      <c r="S79" s="140"/>
+      <c r="T79" s="141"/>
+      <c r="U79" s="140"/>
+      <c r="V79" s="140"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="50"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="77"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="77"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="77"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="77"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="77"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="144"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="144"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="144"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="59">
+        <f>E101-E99</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="81"/>
+      <c r="K95" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="L95" s="146"/>
+      <c r="M95" s="146"/>
+      <c r="N95" s="146"/>
+      <c r="O95" s="146"/>
+      <c r="P95" s="146"/>
+      <c r="Q95" s="147"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="59">
+        <f>E101-E100</f>
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="81"/>
+      <c r="K96" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="L96" s="146"/>
+      <c r="M96" s="146"/>
+      <c r="N96" s="146"/>
+      <c r="O96" s="146"/>
+      <c r="P96" s="146"/>
+      <c r="Q96" s="147"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="105"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="59">
+        <f>E101/E99</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="81"/>
+      <c r="K97" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="L97" s="146"/>
+      <c r="M97" s="146"/>
+      <c r="N97" s="146"/>
+      <c r="O97" s="146"/>
+      <c r="P97" s="146"/>
+      <c r="Q97" s="147"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="71">
+      <c r="E98" s="23">
+        <v>225</v>
+      </c>
+      <c r="F98" s="76"/>
+      <c r="G98" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="121"/>
-    </row>
-    <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="62" t="s">
+      <c r="H98" s="59">
+        <f>E101/E100</f>
+        <v>1.0212765957446808</v>
+      </c>
+      <c r="I98" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" s="81"/>
+      <c r="K98" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L98" s="146"/>
+      <c r="M98" s="146"/>
+      <c r="N98" s="146"/>
+      <c r="O98" s="146"/>
+      <c r="P98" s="146"/>
+      <c r="Q98" s="147"/>
+      <c r="R98" s="76"/>
+      <c r="S98" s="76"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="70">
+      <c r="E99" s="79">
+        <f>K79</f>
+        <v>24</v>
+      </c>
+      <c r="F99" s="76"/>
+      <c r="G99" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="59">
+        <f>E98-E101</f>
+        <v>201</v>
+      </c>
+      <c r="I99" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" s="81"/>
+      <c r="K99" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="L99" s="146"/>
+      <c r="M99" s="146"/>
+      <c r="N99" s="146"/>
+      <c r="O99" s="146"/>
+      <c r="P99" s="146"/>
+      <c r="Q99" s="147"/>
+      <c r="R99" s="76"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="79">
+        <f>M79</f>
+        <v>23.5</v>
+      </c>
+      <c r="F100" s="76"/>
+      <c r="G100" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" s="59">
+        <f>(E98-E101)/(H97*H98)</f>
+        <v>196.81250000000003</v>
+      </c>
+      <c r="I100" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="81"/>
+      <c r="K100" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="L100" s="146"/>
+      <c r="M100" s="146"/>
+      <c r="N100" s="146"/>
+      <c r="O100" s="146"/>
+      <c r="P100" s="146"/>
+      <c r="Q100" s="147"/>
+      <c r="R100" s="76"/>
+      <c r="S100" s="76"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="79">
+        <f>L79</f>
+        <v>24</v>
+      </c>
+      <c r="F101" s="76"/>
+      <c r="G101" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="59">
+        <f>E100+(E98-E101)</f>
+        <v>224.5</v>
+      </c>
+      <c r="I101" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="81"/>
+      <c r="K101" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="L101" s="146"/>
+      <c r="M101" s="146"/>
+      <c r="N101" s="146"/>
+      <c r="O101" s="146"/>
+      <c r="P101" s="146"/>
+      <c r="Q101" s="147"/>
+      <c r="R101" s="76"/>
+      <c r="S101" s="76"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="59">
+        <f>E98/H98</f>
+        <v>220.31250000000003</v>
+      </c>
+      <c r="I102" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="82"/>
+      <c r="K102" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="L102" s="146"/>
+      <c r="M102" s="146"/>
+      <c r="N102" s="146"/>
+      <c r="O102" s="146"/>
+      <c r="P102" s="146"/>
+      <c r="Q102" s="147"/>
+      <c r="R102" s="76"/>
+      <c r="S102" s="76"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="148">
+        <f>E100+(E98-E101)/(H97*H98)</f>
+        <v>220.31250000000003</v>
+      </c>
+      <c r="I103" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" s="82"/>
+      <c r="K103" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="L103" s="146"/>
+      <c r="M103" s="146"/>
+      <c r="N103" s="146"/>
+      <c r="O103" s="146"/>
+      <c r="P103" s="146"/>
+      <c r="Q103" s="147"/>
+      <c r="R103" s="76"/>
+      <c r="S103" s="76"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="59">
+        <f>(E98-E101)/(E98-E100)</f>
+        <v>0.9975186104218362</v>
+      </c>
+      <c r="I104" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J104" s="82"/>
+      <c r="K104" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="L104" s="146"/>
+      <c r="M104" s="146"/>
+      <c r="N104" s="146"/>
+      <c r="O104" s="146"/>
+      <c r="P104" s="146"/>
+      <c r="Q104" s="147"/>
+      <c r="R104" s="76"/>
+      <c r="S104" s="76"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="76"/>
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
+      <c r="R105" s="76"/>
+      <c r="S105" s="76"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76"/>
+      <c r="M106" s="76"/>
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
+      <c r="R106" s="76"/>
+      <c r="S106" s="76"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="76"/>
+      <c r="M107" s="76"/>
+      <c r="N107" s="76"/>
+      <c r="O107" s="76"/>
+      <c r="P107" s="76"/>
+      <c r="Q107" s="76"/>
+      <c r="R107" s="76"/>
+      <c r="S107" s="76"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="76"/>
+      <c r="L108" s="76"/>
+      <c r="M108" s="76"/>
+      <c r="N108" s="76"/>
+      <c r="O108" s="76"/>
+      <c r="P108" s="76"/>
+      <c r="Q108" s="76"/>
+      <c r="R108" s="76"/>
+      <c r="S108" s="76"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="74">
+        <f>H79</f>
         <v>8.5</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="121"/>
-    </row>
-    <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="63">
+      <c r="I109" s="74">
+        <f>I79</f>
+        <v>8.5</v>
+      </c>
+      <c r="J109" s="74">
+        <f>J79</f>
         <v>6.75</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="118"/>
-    </row>
-    <row r="38" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="63">
-        <v>8.5</v>
-      </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="118"/>
-    </row>
-    <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="63">
-        <v>0</v>
-      </c>
-      <c r="D39" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="100"/>
-      <c r="F39" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="118"/>
-    </row>
-    <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="63">
-        <v>1.75</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="118"/>
-    </row>
-    <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="63">
-        <v>1</v>
-      </c>
-      <c r="D41" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="118"/>
-    </row>
-    <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="62" t="s">
+      <c r="K109" s="76"/>
+      <c r="L109" s="76"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="76"/>
+      <c r="P109" s="76"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="76"/>
+      <c r="S109" s="76"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="74">
+        <f>K79</f>
         <v>24</v>
       </c>
-      <c r="C42" s="63">
-        <v>1.26</v>
-      </c>
-      <c r="D42" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="118"/>
-    </row>
-    <row r="43" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="63">
-        <v>15.5</v>
-      </c>
-      <c r="D43" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="118"/>
-    </row>
-    <row r="44" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="63">
-        <v>12.31</v>
-      </c>
-      <c r="D44" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="118"/>
-    </row>
-    <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="63">
-        <v>22.25</v>
-      </c>
-      <c r="D45" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="100"/>
-      <c r="F45" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="121"/>
-    </row>
-    <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="63">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="D46" s="99" t="s">
+      <c r="I110" s="74">
+        <f>L79</f>
+        <v>24</v>
+      </c>
+      <c r="J110" s="74">
+        <f>M79</f>
+        <v>23.5</v>
+      </c>
+      <c r="K110" s="76"/>
+      <c r="L110" s="76"/>
+      <c r="M110" s="76"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="76"/>
+      <c r="P110" s="76"/>
+      <c r="Q110" s="76"/>
+      <c r="R110" s="76"/>
+      <c r="S110" s="76"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="74">
+        <f>N79</f>
+        <v>37</v>
+      </c>
+      <c r="I111" s="74">
+        <f>O79</f>
         <v>35</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="121"/>
-    </row>
-    <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="63">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="D47" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="100"/>
-      <c r="F47" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="121"/>
-    </row>
-    <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="63">
-        <v>0.9</v>
-      </c>
-      <c r="D48" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="100"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="121"/>
-    </row>
-    <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103"/>
-    </row>
-    <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="106"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="107"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="109"/>
-    </row>
-    <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="110"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="112"/>
-    </row>
-    <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-    </row>
-    <row r="54" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-    </row>
-    <row r="55" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55" s="67"/>
-      <c r="K55" s="68"/>
-    </row>
-    <row r="56" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="65"/>
-      <c r="J56" s="65"/>
-    </row>
-    <row r="57" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="1"/>
-      <c r="I57" s="64"/>
+      <c r="J111" s="74">
+        <f>P79</f>
+        <v>36.5</v>
+      </c>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="76"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76"/>
+      <c r="O112" s="76"/>
+      <c r="P112" s="76"/>
+      <c r="Q112" s="76"/>
+      <c r="R112" s="76"/>
+      <c r="S112" s="76"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="76"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="76"/>
+      <c r="O113" s="76"/>
+      <c r="P113" s="76"/>
+      <c r="Q113" s="76"/>
+      <c r="R113" s="76"/>
+      <c r="S113" s="76"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="76"/>
+      <c r="O115" s="76"/>
+      <c r="P115" s="76"/>
+      <c r="Q115" s="76"/>
+      <c r="R115" s="76"/>
+      <c r="S115" s="76"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="76"/>
+      <c r="M116" s="76"/>
+      <c r="N116" s="76"/>
+      <c r="O116" s="76"/>
+      <c r="P116" s="76"/>
+      <c r="Q116" s="76"/>
+      <c r="R116" s="76"/>
+      <c r="S116" s="76"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B26:K28"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="B50:K52"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
+  <mergeCells count="33">
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
